--- a/data/HASIL EVALUASI.xlsx
+++ b/data/HASIL EVALUASI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEPLOY TA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8885D-07E4-4166-9C9F-77A0B883768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FA313-69D5-482F-8385-62A9A5ED2402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="684" windowWidth="21600" windowHeight="12360" xr2:uid="{DBF89F2A-3A19-40D9-9188-76CE940CB1B0}"/>
+    <workbookView xWindow="1440" yWindow="132" windowWidth="21600" windowHeight="12360" xr2:uid="{DBF89F2A-3A19-40D9-9188-76CE940CB1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengan Tunning" sheetId="1" r:id="rId1"/>
@@ -700,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502DE40F-2407-4317-B8B3-C29B96010CA1}">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -720,156 +720,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.8">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2201</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1042</v>
+      </c>
+      <c r="F2" s="1">
+        <v>245</v>
+      </c>
+      <c r="G2" s="1">
+        <v>116</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2201</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2201</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.7722</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="43" customFormat="1" ht="16.8">
+      <c r="A3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="45">
+        <v>2201</v>
+      </c>
+      <c r="E3" s="45">
+        <v>1042</v>
+      </c>
+      <c r="F3" s="45">
+        <v>245</v>
+      </c>
+      <c r="G3" s="45">
+        <v>116</v>
+      </c>
+      <c r="H3" s="45">
+        <v>2201</v>
+      </c>
+      <c r="I3" s="45">
+        <v>2201</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="K3" s="46">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="L3" s="46">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="M3" s="46">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="N3" s="47">
+        <v>10</v>
+      </c>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.8">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1042</v>
+      </c>
+      <c r="F4" s="1">
+        <v>245</v>
+      </c>
+      <c r="G4" s="1">
+        <v>116</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2201</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2201</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="N4" s="25">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="O4" s="28">
         <v>2</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.8">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2201</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1042</v>
-      </c>
-      <c r="F3" s="1">
-        <v>245</v>
-      </c>
-      <c r="G3" s="1">
-        <v>116</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2201</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2201</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.77010000000000001</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.77010000000000001</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.7722</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="43" customFormat="1" ht="16.8">
-      <c r="A4" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="45">
-        <v>2201</v>
-      </c>
-      <c r="E4" s="45">
-        <v>1042</v>
-      </c>
-      <c r="F4" s="45">
-        <v>245</v>
-      </c>
-      <c r="G4" s="45">
-        <v>116</v>
-      </c>
-      <c r="H4" s="45">
-        <v>2201</v>
-      </c>
-      <c r="I4" s="45">
-        <v>2201</v>
-      </c>
-      <c r="J4" s="46">
-        <v>0.79779999999999995</v>
-      </c>
-      <c r="K4" s="46">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="L4" s="46">
-        <v>0.79779999999999995</v>
-      </c>
-      <c r="M4" s="46">
-        <v>0.78480000000000005</v>
-      </c>
-      <c r="N4" s="47">
-        <v>10</v>
-      </c>
-      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="16.8">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>13</v>
@@ -887,127 +919,127 @@
         <v>116</v>
       </c>
       <c r="H5" s="1">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="I5" s="1">
-        <v>2201</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.77470000000000006</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.77549999999999997</v>
+        <v>2191</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.75960000000000005</v>
       </c>
       <c r="N5" s="25">
         <v>1</v>
       </c>
-      <c r="O5" s="28">
+    </row>
+    <row r="6" spans="1:17" s="43" customFormat="1" ht="16.8">
+      <c r="A6" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="45">
+        <v>2201</v>
+      </c>
+      <c r="E6" s="45">
+        <v>1042</v>
+      </c>
+      <c r="F6" s="45">
+        <v>245</v>
+      </c>
+      <c r="G6" s="45">
+        <v>116</v>
+      </c>
+      <c r="H6" s="45">
+        <v>2191</v>
+      </c>
+      <c r="I6" s="45">
+        <v>2191</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="K6" s="46">
+        <v>0.79659999999999997</v>
+      </c>
+      <c r="L6" s="46">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="M6" s="46">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="N6" s="47">
+        <v>10</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.8">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2201</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1042</v>
+      </c>
+      <c r="F7" s="1">
+        <v>245</v>
+      </c>
+      <c r="G7" s="1">
+        <v>116</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2191</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2191</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.7782</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.77929999999999999</v>
+      </c>
+      <c r="N7" s="25">
+        <v>1</v>
+      </c>
+      <c r="O7" s="28">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.8">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2201</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1042</v>
-      </c>
-      <c r="F6" s="1">
-        <v>245</v>
-      </c>
-      <c r="G6" s="1">
-        <v>116</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2191</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2191</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.75619999999999998</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.75619999999999998</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0.75960000000000005</v>
-      </c>
-      <c r="N6" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="43" customFormat="1" ht="16.8">
-      <c r="A7" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="45">
-        <v>2201</v>
-      </c>
-      <c r="E7" s="45">
-        <v>1042</v>
-      </c>
-      <c r="F7" s="45">
-        <v>245</v>
-      </c>
-      <c r="G7" s="45">
-        <v>116</v>
-      </c>
-      <c r="H7" s="45">
-        <v>2191</v>
-      </c>
-      <c r="I7" s="45">
-        <v>2191</v>
-      </c>
-      <c r="J7" s="46">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="K7" s="46">
-        <v>0.79659999999999997</v>
-      </c>
-      <c r="L7" s="46">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="M7" s="46">
-        <v>0.78990000000000005</v>
-      </c>
-      <c r="N7" s="47">
-        <v>10</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>13</v>
@@ -1025,28 +1057,25 @@
         <v>116</v>
       </c>
       <c r="H8" s="1">
-        <v>2191</v>
+        <v>2201</v>
       </c>
       <c r="I8" s="1">
-        <v>2191</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.78390000000000004</v>
+        <v>1963</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.78120000000000001</v>
       </c>
       <c r="K8" s="5">
-        <v>0.7782</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="L8" s="5">
-        <v>0.78390000000000004</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="M8" s="5">
-        <v>0.77929999999999999</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="N8" s="25">
-        <v>1</v>
-      </c>
-      <c r="O8" s="28">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.8">
@@ -1054,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>13</v>
@@ -1077,17 +1106,17 @@
       <c r="I9" s="1">
         <v>1963</v>
       </c>
-      <c r="J9" s="6">
-        <v>0.78120000000000001</v>
+      <c r="J9" s="5">
+        <v>0.79220000000000002</v>
       </c>
       <c r="K9" s="5">
-        <v>0.77400000000000002</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="L9" s="5">
-        <v>0.78120000000000001</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="M9" s="5">
-        <v>0.77329999999999999</v>
+        <v>0.77890000000000004</v>
       </c>
       <c r="N9" s="25">
         <v>10</v>
@@ -1098,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>13</v>
@@ -1122,119 +1151,119 @@
         <v>1963</v>
       </c>
       <c r="J10" s="5">
-        <v>0.79220000000000002</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="K10" s="5">
-        <v>0.78869999999999996</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="L10" s="5">
-        <v>0.79220000000000002</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="M10" s="5">
-        <v>0.77890000000000004</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="N10" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2201</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1042</v>
-      </c>
-      <c r="F11" s="1">
-        <v>245</v>
-      </c>
-      <c r="G11" s="1">
-        <v>116</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2201</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1963</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0.77290000000000003</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="N11" s="25">
         <v>1</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O10" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="32" customFormat="1" ht="16.8">
-      <c r="A12" s="32" t="s">
+    <row r="11" spans="1:17" s="32" customFormat="1" ht="16.8">
+      <c r="A11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D11" s="34">
         <v>1957</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E11" s="34">
         <v>926</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F11" s="34">
         <v>489</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G11" s="34">
         <v>232</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H11" s="34">
         <v>1957</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I11" s="34">
         <v>1957</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J11" s="35">
         <v>0.7601</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K11" s="35">
         <v>0.76790000000000003</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L11" s="35">
         <v>0.7601</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M11" s="35">
         <v>0.76300000000000001</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N11" s="36">
         <v>1</v>
       </c>
-      <c r="O12" s="37"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.8">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E12" s="1">
+        <v>926</v>
+      </c>
+      <c r="F12" s="1">
+        <v>489</v>
+      </c>
+      <c r="G12" s="1">
+        <v>232</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1957</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1957</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="N12" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="16.8">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>18</v>
@@ -1258,27 +1287,30 @@
         <v>1957</v>
       </c>
       <c r="J13" s="4">
-        <v>0.78090000000000004</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="K13" s="4">
-        <v>0.78700000000000003</v>
+        <v>0.77080000000000004</v>
       </c>
       <c r="L13" s="4">
-        <v>0.78090000000000004</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="M13" s="4">
-        <v>0.75660000000000005</v>
+        <v>0.77090000000000003</v>
       </c>
       <c r="N13" s="25">
         <v>1</v>
       </c>
+      <c r="O13" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="16.8">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>18</v>
@@ -1296,28 +1328,25 @@
         <v>232</v>
       </c>
       <c r="H14" s="1">
-        <v>1957</v>
+        <v>1941</v>
       </c>
       <c r="I14" s="1">
-        <v>1957</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.77810000000000001</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.77080000000000004</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.77810000000000001</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.77090000000000003</v>
+        <v>1941</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.76029999999999998</v>
       </c>
       <c r="N14" s="25">
         <v>1</v>
-      </c>
-      <c r="O14" s="29">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.8">
@@ -1325,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>18</v>
@@ -1348,28 +1377,31 @@
       <c r="I15" s="1">
         <v>1941</v>
       </c>
-      <c r="J15" s="3">
-        <v>0.75729999999999997</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.75729999999999997</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.76029999999999998</v>
-      </c>
-      <c r="N15" s="25">
-        <v>1</v>
-      </c>
+      <c r="J15" s="4">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.78920000000000001</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.7732</v>
+      </c>
+      <c r="N15" s="31">
+        <v>10</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" ht="16.8">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>18</v>
@@ -1393,30 +1425,30 @@
         <v>1941</v>
       </c>
       <c r="J16" s="4">
-        <v>0.78920000000000001</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="K16" s="4">
-        <v>0.78739999999999999</v>
+        <v>0.77549999999999997</v>
       </c>
       <c r="L16" s="4">
-        <v>0.78920000000000001</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="M16" s="4">
-        <v>0.7732</v>
-      </c>
-      <c r="N16" s="31">
-        <v>10</v>
-      </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="N16" s="25">
+        <v>1</v>
+      </c>
+      <c r="O16" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="16.8">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>18</v>
@@ -1434,28 +1466,25 @@
         <v>232</v>
       </c>
       <c r="H17" s="1">
-        <v>1941</v>
+        <v>1957</v>
       </c>
       <c r="I17" s="1">
-        <v>1941</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.78220000000000001</v>
+        <v>1755</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.76559999999999995</v>
       </c>
       <c r="K17" s="4">
-        <v>0.77549999999999997</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="L17" s="4">
-        <v>0.78220000000000001</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="M17" s="4">
-        <v>0.77129999999999999</v>
+        <v>0.75470000000000004</v>
       </c>
       <c r="N17" s="25">
-        <v>1</v>
-      </c>
-      <c r="O17" s="24">
-        <v>3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.8">
@@ -1463,7 +1492,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>18</v>
@@ -1486,20 +1515,20 @@
       <c r="I18" s="1">
         <v>1755</v>
       </c>
-      <c r="J18" s="5">
-        <v>0.76559999999999995</v>
+      <c r="J18" s="4">
+        <v>0.77810000000000001</v>
       </c>
       <c r="K18" s="4">
-        <v>0.75660000000000005</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="L18" s="4">
-        <v>0.76559999999999995</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="M18" s="4">
-        <v>0.75470000000000004</v>
-      </c>
-      <c r="N18" s="25">
-        <v>0.1</v>
+        <v>0.75419999999999998</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.8">
@@ -1507,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>18</v>
@@ -1531,119 +1560,119 @@
         <v>1755</v>
       </c>
       <c r="J19" s="4">
-        <v>0.77810000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K19" s="4">
-        <v>0.78220000000000001</v>
+        <v>0.78580000000000005</v>
       </c>
       <c r="L19" s="4">
-        <v>0.77810000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="M19" s="4">
-        <v>0.75419999999999998</v>
+        <v>0.78480000000000005</v>
       </c>
       <c r="N19" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="16.8">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1957</v>
-      </c>
-      <c r="E20" s="1">
-        <v>926</v>
-      </c>
-      <c r="F20" s="1">
-        <v>489</v>
-      </c>
-      <c r="G20" s="1">
-        <v>232</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1957</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1755</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.78480000000000005</v>
-      </c>
-      <c r="N20" s="25" t="s">
+      <c r="O19" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="32" customFormat="1" ht="16.8">
+      <c r="A20" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1712</v>
+      </c>
+      <c r="E20" s="34">
+        <v>810</v>
+      </c>
+      <c r="F20" s="34">
+        <v>734</v>
+      </c>
+      <c r="G20" s="34">
+        <v>348</v>
+      </c>
+      <c r="H20" s="34">
+        <v>1712</v>
+      </c>
+      <c r="I20" s="34">
+        <v>1712</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="K20" s="35">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="L20" s="35">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="M20" s="35">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="N20" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="32" customFormat="1" ht="16.8">
-      <c r="A21" s="32" t="s">
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.8">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="1">
         <v>1712</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="1">
         <v>810</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="1">
         <v>734</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="1">
         <v>348</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="1">
         <v>1712</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="1">
         <v>1712</v>
       </c>
-      <c r="J21" s="35">
-        <v>0.75139999999999996</v>
-      </c>
-      <c r="K21" s="35">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="L21" s="35">
-        <v>0.75139999999999996</v>
-      </c>
-      <c r="M21" s="35">
-        <v>0.75339999999999996</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="37"/>
+      <c r="J21" s="4">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="16.8">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>19</v>
@@ -1666,28 +1695,31 @@
       <c r="I22" s="1">
         <v>1712</v>
       </c>
-      <c r="J22" s="4">
-        <v>0.79210000000000003</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0.79210000000000003</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.77839999999999998</v>
+      <c r="J22" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.78190000000000004</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="O22" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.8">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>19</v>
@@ -1705,28 +1737,25 @@
         <v>348</v>
       </c>
       <c r="H23" s="1">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="I23" s="1">
-        <v>1712</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0.78190000000000004</v>
+        <v>1702</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.75239999999999996</v>
       </c>
       <c r="N23" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O23" s="24">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.8">
@@ -1734,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>19</v>
@@ -1758,19 +1787,19 @@
         <v>1702</v>
       </c>
       <c r="J24" s="4">
-        <v>0.75049999999999994</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="K24" s="4">
-        <v>0.75490000000000002</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="L24" s="4">
-        <v>0.75049999999999994</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="M24" s="4">
-        <v>0.75239999999999996</v>
+        <v>0.77580000000000005</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.8">
@@ -1778,7 +1807,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -1801,28 +1830,31 @@
       <c r="I25" s="1">
         <v>1702</v>
       </c>
-      <c r="J25" s="4">
-        <v>0.79020000000000001</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.78710000000000002</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0.79020000000000001</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.77580000000000005</v>
+      <c r="J25" s="3">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0.78300000000000003</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="O25" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.8">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>19</v>
@@ -1840,28 +1872,25 @@
         <v>348</v>
       </c>
       <c r="H26" s="1">
-        <v>1702</v>
+        <v>1753</v>
       </c>
       <c r="I26" s="1">
-        <v>1702</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0.78890000000000005</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0.78300000000000003</v>
+        <v>1712</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0.74229999999999996</v>
       </c>
       <c r="N26" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O26" s="24">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.8">
@@ -1869,7 +1898,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>19</v>
@@ -1893,16 +1922,16 @@
         <v>1712</v>
       </c>
       <c r="J27" s="4">
-        <v>0.73750000000000004</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="K27" s="4">
-        <v>0.75170000000000003</v>
+        <v>0.78439999999999999</v>
       </c>
       <c r="L27" s="4">
-        <v>0.73750000000000004</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="M27" s="4">
-        <v>0.74229999999999996</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="N27" s="25" t="s">
         <v>24</v>
@@ -1913,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>19</v>
@@ -1937,116 +1966,116 @@
         <v>1712</v>
       </c>
       <c r="J28" s="4">
-        <v>0.78100000000000003</v>
+        <v>0.78559999999999997</v>
       </c>
       <c r="K28" s="4">
-        <v>0.78439999999999999</v>
+        <v>0.77880000000000005</v>
       </c>
       <c r="L28" s="4">
-        <v>0.78100000000000003</v>
+        <v>0.78559999999999997</v>
       </c>
       <c r="M28" s="4">
-        <v>0.75839999999999996</v>
+        <v>0.7782</v>
       </c>
       <c r="N28" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="16.8">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1712</v>
-      </c>
-      <c r="E29" s="1">
-        <v>810</v>
-      </c>
-      <c r="F29" s="1">
-        <v>734</v>
-      </c>
-      <c r="G29" s="1">
-        <v>348</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1753</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1712</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.78559999999999997</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.77880000000000005</v>
-      </c>
-      <c r="L29" s="4">
-        <v>0.78559999999999997</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.7782</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="38" customFormat="1" ht="16.8">
-      <c r="A30" s="38" t="s">
+    <row r="29" spans="1:15" s="38" customFormat="1" ht="16.8">
+      <c r="A29" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B29" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D29" s="40">
         <v>1467</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E29" s="40">
         <v>695</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F29" s="40">
         <v>979</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G29" s="40">
         <v>463</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H29" s="40">
         <v>1467</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I29" s="40">
         <v>1467</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J29" s="49">
         <v>0.7399</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K29" s="49">
         <v>0.74519999999999997</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L29" s="49">
         <v>0.7399</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M29" s="49">
         <v>0.74219999999999997</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N29" s="38">
         <v>1</v>
       </c>
-      <c r="O30" s="41"/>
+      <c r="O29" s="41"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.8">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1467</v>
+      </c>
+      <c r="E30" s="1">
+        <v>695</v>
+      </c>
+      <c r="F30" s="1">
+        <v>979</v>
+      </c>
+      <c r="G30" s="1">
+        <v>463</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1467</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1467</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.7671</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.7591</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="16.8">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>20</v>
@@ -2069,28 +2098,31 @@
       <c r="I31" s="1">
         <v>1467</v>
       </c>
-      <c r="J31" s="3">
-        <v>0.77390000000000003</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.7671</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.77390000000000003</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0.7591</v>
+      <c r="J31" s="4">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.76370000000000005</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="O31" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.8">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>20</v>
@@ -2108,28 +2140,25 @@
         <v>463</v>
       </c>
       <c r="H32" s="1">
-        <v>1467</v>
+        <v>1450</v>
       </c>
       <c r="I32" s="1">
-        <v>1467</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0.76370000000000005</v>
+        <v>1450</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.74350000000000005</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0.73980000000000001</v>
       </c>
       <c r="N32" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O32" s="24">
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.8">
@@ -2137,7 +2166,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>20</v>
@@ -2161,19 +2190,19 @@
         <v>1450</v>
       </c>
       <c r="J33" s="3">
-        <v>0.73719999999999997</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="K33" s="3">
-        <v>0.74350000000000005</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="L33" s="3">
-        <v>0.73719999999999997</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="M33" s="3">
-        <v>0.73980000000000001</v>
+        <v>0.75580000000000003</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.8">
@@ -2181,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>20</v>
@@ -2204,28 +2233,31 @@
       <c r="I34" s="1">
         <v>1450</v>
       </c>
-      <c r="J34" s="3">
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0.76649999999999996</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0.75580000000000003</v>
+      <c r="J34" s="4">
+        <v>0.7732</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.7732</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.76100000000000001</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="O34" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.8">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>20</v>
@@ -2243,28 +2275,25 @@
         <v>463</v>
       </c>
       <c r="H35" s="1">
-        <v>1450</v>
+        <v>1497</v>
       </c>
       <c r="I35" s="1">
-        <v>1450</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0.7732</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.76529999999999998</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0.7732</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0.76100000000000001</v>
+        <v>1467</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.7399</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.72940000000000005</v>
       </c>
       <c r="N35" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="O35" s="24">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.8">
@@ -2272,7 +2301,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>20</v>
@@ -2295,20 +2324,20 @@
       <c r="I36" s="1">
         <v>1467</v>
       </c>
-      <c r="J36" s="3">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0.7399</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0.72940000000000005</v>
+      <c r="J36" s="4">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.7621</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.75470000000000004</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.8">
@@ -2316,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>20</v>
@@ -2340,82 +2369,53 @@
         <v>1467</v>
       </c>
       <c r="J37" s="4">
-        <v>0.76980000000000004</v>
+        <v>0.7712</v>
       </c>
       <c r="K37" s="4">
-        <v>0.7621</v>
+        <v>0.76290000000000002</v>
       </c>
       <c r="L37" s="4">
-        <v>0.76980000000000004</v>
+        <v>0.7712</v>
       </c>
       <c r="M37" s="4">
-        <v>0.75470000000000004</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="16.8">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1467</v>
-      </c>
-      <c r="E38" s="1">
-        <v>695</v>
-      </c>
-      <c r="F38" s="1">
-        <v>979</v>
-      </c>
-      <c r="G38" s="1">
-        <v>463</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1497</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1467</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0.7712</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0.76290000000000002</v>
-      </c>
-      <c r="L38" s="4">
-        <v>0.7712</v>
-      </c>
-      <c r="M38" s="4">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="N38" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O37" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="14.4" customHeight="1">
+    <row r="38" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" ht="16.8">
       <c r="A39" s="13"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
     </row>
     <row r="40" spans="1:15" ht="16.8">
       <c r="A40" s="13"/>
@@ -2427,10 +2427,10 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" spans="1:15" ht="16.8">
       <c r="A41" s="13"/>
@@ -2462,35 +2462,35 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="1:15" ht="16.8">
+    <row r="43" spans="1:15" ht="15.6">
       <c r="A43" s="13"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:15" ht="15.6">
+      <c r="B43" s="14"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" ht="16.8">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:15" ht="16.8">
       <c r="A45" s="13"/>
@@ -2539,33 +2539,33 @@
     </row>
     <row r="48" spans="1:15" ht="16.8">
       <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
     </row>
     <row r="49" spans="1:13" ht="16.8">
       <c r="A49" s="13"/>
       <c r="B49" s="18"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13" ht="16.8">
       <c r="A50" s="13"/>
@@ -2577,10 +2577,10 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
     </row>
     <row r="51" spans="1:13" ht="16.8">
       <c r="A51" s="13"/>
@@ -2616,31 +2616,31 @@
       <c r="A53" s="13"/>
       <c r="B53" s="18"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
     </row>
     <row r="54" spans="1:13" ht="16.8">
       <c r="A54" s="13"/>
       <c r="B54" s="18"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
     </row>
     <row r="55" spans="1:13" ht="16.8">
       <c r="A55" s="13"/>
@@ -2652,10 +2652,10 @@
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" ht="16.8">
       <c r="A56" s="13"/>
@@ -2687,35 +2687,35 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="1:13" ht="16.8">
+    <row r="58" spans="1:13" ht="14.4" customHeight="1">
       <c r="A58" s="13"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="1:13" ht="14.4" customHeight="1">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+    </row>
+    <row r="59" spans="1:13" ht="16.8">
       <c r="A59" s="13"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="16.8">
       <c r="A60" s="13"/>
@@ -2727,10 +2727,10 @@
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" ht="16.8">
       <c r="A61" s="13"/>
@@ -2761,21 +2761,6 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="16.8">
-      <c r="A63" s="13"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/data/HASIL EVALUASI.xlsx
+++ b/data/HASIL EVALUASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEPLOY TA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FA313-69D5-482F-8385-62A9A5ED2402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E76250-B4FD-41AC-8CAC-ABFD2B5684EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="132" windowWidth="21600" windowHeight="12360" xr2:uid="{DBF89F2A-3A19-40D9-9188-76CE940CB1B0}"/>
   </bookViews>
@@ -700,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502DE40F-2407-4317-B8B3-C29B96010CA1}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A2:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -719,189 +719,142 @@
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6">
-      <c r="A1" t="s">
+    <row r="2" spans="1:17" ht="15.6">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.8">
-      <c r="A2" t="s">
+    <row r="3" spans="1:17" ht="16.8">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>2201</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>1042</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>245</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>116</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>2201</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>2201</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="2">
         <v>0.77010000000000001</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="2">
         <v>0.77529999999999999</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="2">
         <v>0.77010000000000001</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="2">
         <v>0.7722</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="43" customFormat="1" ht="16.8">
-      <c r="A3" s="43" t="s">
+    <row r="4" spans="1:17" s="43" customFormat="1" ht="16.8">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D4" s="45">
         <v>2201</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E4" s="45">
         <v>1042</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F4" s="45">
         <v>245</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G4" s="45">
         <v>116</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H4" s="45">
         <v>2201</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I4" s="45">
         <v>2201</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J4" s="46">
         <v>0.79779999999999995</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K4" s="46">
         <v>0.79520000000000002</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L4" s="46">
         <v>0.79779999999999995</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M4" s="46">
         <v>0.78480000000000005</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N4" s="47">
         <v>10</v>
       </c>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.8">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2201</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1042</v>
-      </c>
-      <c r="F4" s="1">
-        <v>245</v>
-      </c>
-      <c r="G4" s="1">
-        <v>116</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2201</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2201</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.77470000000000006</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0.77549999999999997</v>
-      </c>
-      <c r="N4" s="25">
-        <v>1</v>
-      </c>
-      <c r="O4" s="28">
-        <v>2</v>
-      </c>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="16.8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>13</v>
@@ -919,127 +872,127 @@
         <v>116</v>
       </c>
       <c r="H5" s="1">
-        <v>2191</v>
+        <v>2201</v>
       </c>
       <c r="I5" s="1">
-        <v>2191</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.75619999999999998</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.75619999999999998</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.75960000000000005</v>
+        <v>2201</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.77549999999999997</v>
       </c>
       <c r="N5" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="43" customFormat="1" ht="16.8">
-      <c r="A6" s="43" t="s">
+      <c r="O5" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.8">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2201</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1042</v>
+      </c>
+      <c r="F6" s="1">
+        <v>245</v>
+      </c>
+      <c r="G6" s="1">
+        <v>116</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2191</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2191</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="N6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="43" customFormat="1" ht="16.8">
+      <c r="A7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D7" s="45">
         <v>2201</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E7" s="45">
         <v>1042</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F7" s="45">
         <v>245</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G7" s="45">
         <v>116</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H7" s="45">
         <v>2191</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I7" s="45">
         <v>2191</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J7" s="46">
         <v>0.80059999999999998</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K7" s="46">
         <v>0.79659999999999997</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L7" s="46">
         <v>0.80059999999999998</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M7" s="46">
         <v>0.78990000000000005</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N7" s="47">
         <v>10</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O7" s="48" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.8">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2201</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1042</v>
-      </c>
-      <c r="F7" s="1">
-        <v>245</v>
-      </c>
-      <c r="G7" s="1">
-        <v>116</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2191</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2191</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.78390000000000004</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0.7782</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0.78390000000000004</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0.77929999999999999</v>
-      </c>
-      <c r="N7" s="25">
-        <v>1</v>
-      </c>
-      <c r="O7" s="28">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>13</v>
@@ -1057,25 +1010,28 @@
         <v>116</v>
       </c>
       <c r="H8" s="1">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="I8" s="1">
-        <v>1963</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.78120000000000001</v>
+        <v>2191</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.78390000000000004</v>
       </c>
       <c r="K8" s="5">
-        <v>0.77400000000000002</v>
+        <v>0.7782</v>
       </c>
       <c r="L8" s="5">
-        <v>0.78120000000000001</v>
+        <v>0.78390000000000004</v>
       </c>
       <c r="M8" s="5">
-        <v>0.77329999999999999</v>
+        <v>0.77929999999999999</v>
       </c>
       <c r="N8" s="25">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="O8" s="28">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.8">
@@ -1083,7 +1039,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>13</v>
@@ -1106,17 +1062,17 @@
       <c r="I9" s="1">
         <v>1963</v>
       </c>
-      <c r="J9" s="5">
-        <v>0.79220000000000002</v>
+      <c r="J9" s="6">
+        <v>0.78120000000000001</v>
       </c>
       <c r="K9" s="5">
-        <v>0.78869999999999996</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="L9" s="5">
-        <v>0.79220000000000002</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="M9" s="5">
-        <v>0.77890000000000004</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="N9" s="25">
         <v>10</v>
@@ -1127,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>13</v>
@@ -1151,119 +1107,119 @@
         <v>1963</v>
       </c>
       <c r="J10" s="5">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="N10" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1042</v>
+      </c>
+      <c r="F11" s="1">
+        <v>245</v>
+      </c>
+      <c r="G11" s="1">
+        <v>116</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2201</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1963</v>
+      </c>
+      <c r="J11" s="5">
         <v>0.77839999999999998</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K11" s="5">
         <v>0.77290000000000003</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="5">
         <v>0.77839999999999998</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M11" s="5">
         <v>0.77439999999999998</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N11" s="25">
         <v>1</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O11" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="32" customFormat="1" ht="16.8">
-      <c r="A11" s="32" t="s">
+    <row r="12" spans="1:17" s="32" customFormat="1" ht="16.8">
+      <c r="A12" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D12" s="34">
         <v>1957</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E12" s="34">
         <v>926</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F12" s="34">
         <v>489</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G12" s="34">
         <v>232</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H12" s="34">
         <v>1957</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I12" s="34">
         <v>1957</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J12" s="35">
         <v>0.7601</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K12" s="35">
         <v>0.76790000000000003</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L12" s="35">
         <v>0.7601</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M12" s="35">
         <v>0.76300000000000001</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N12" s="36">
         <v>1</v>
       </c>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.8">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1957</v>
-      </c>
-      <c r="E12" s="1">
-        <v>926</v>
-      </c>
-      <c r="F12" s="1">
-        <v>489</v>
-      </c>
-      <c r="G12" s="1">
-        <v>232</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1957</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1957</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.78090000000000004</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.78090000000000004</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.75660000000000005</v>
-      </c>
-      <c r="N12" s="25">
-        <v>1</v>
-      </c>
+      <c r="O12" s="37"/>
     </row>
     <row r="13" spans="1:17" ht="16.8">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>18</v>
@@ -1287,30 +1243,27 @@
         <v>1957</v>
       </c>
       <c r="J13" s="4">
-        <v>0.77810000000000001</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="K13" s="4">
-        <v>0.77080000000000004</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="L13" s="4">
-        <v>0.77810000000000001</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="M13" s="4">
-        <v>0.77090000000000003</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="N13" s="25">
         <v>1</v>
       </c>
-      <c r="O13" s="29">
-        <v>2</v>
-      </c>
     </row>
     <row r="14" spans="1:17" ht="16.8">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>18</v>
@@ -1328,25 +1281,28 @@
         <v>232</v>
       </c>
       <c r="H14" s="1">
-        <v>1941</v>
+        <v>1957</v>
       </c>
       <c r="I14" s="1">
-        <v>1941</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.75729999999999997</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.75729999999999997</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.76029999999999998</v>
+        <v>1957</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.77080000000000004</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.77090000000000003</v>
       </c>
       <c r="N14" s="25">
         <v>1</v>
+      </c>
+      <c r="O14" s="29">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.8">
@@ -1354,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>18</v>
@@ -1377,31 +1333,28 @@
       <c r="I15" s="1">
         <v>1941</v>
       </c>
-      <c r="J15" s="4">
-        <v>0.78920000000000001</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.78739999999999999</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.78920000000000001</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.7732</v>
-      </c>
-      <c r="N15" s="31">
-        <v>10</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="J15" s="3">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.76029999999999998</v>
+      </c>
+      <c r="N15" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="16.8">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>18</v>
@@ -1425,30 +1378,30 @@
         <v>1941</v>
       </c>
       <c r="J16" s="4">
-        <v>0.78220000000000001</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="K16" s="4">
-        <v>0.77549999999999997</v>
+        <v>0.78739999999999999</v>
       </c>
       <c r="L16" s="4">
-        <v>0.78220000000000001</v>
+        <v>0.78920000000000001</v>
       </c>
       <c r="M16" s="4">
-        <v>0.77129999999999999</v>
-      </c>
-      <c r="N16" s="25">
-        <v>1</v>
-      </c>
-      <c r="O16" s="24">
-        <v>3</v>
-      </c>
+        <v>0.7732</v>
+      </c>
+      <c r="N16" s="31">
+        <v>10</v>
+      </c>
+      <c r="O16" s="27"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:15" ht="16.8">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>18</v>
@@ -1466,25 +1419,28 @@
         <v>232</v>
       </c>
       <c r="H17" s="1">
-        <v>1957</v>
+        <v>1941</v>
       </c>
       <c r="I17" s="1">
-        <v>1755</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.76559999999999995</v>
+        <v>1941</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.78220000000000001</v>
       </c>
       <c r="K17" s="4">
-        <v>0.75660000000000005</v>
+        <v>0.77549999999999997</v>
       </c>
       <c r="L17" s="4">
-        <v>0.76559999999999995</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="M17" s="4">
-        <v>0.75470000000000004</v>
+        <v>0.77129999999999999</v>
       </c>
       <c r="N17" s="25">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="O17" s="24">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="16.8">
@@ -1492,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>18</v>
@@ -1515,20 +1471,20 @@
       <c r="I18" s="1">
         <v>1755</v>
       </c>
-      <c r="J18" s="4">
-        <v>0.77810000000000001</v>
+      <c r="J18" s="5">
+        <v>0.76559999999999995</v>
       </c>
       <c r="K18" s="4">
-        <v>0.78220000000000001</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="L18" s="4">
-        <v>0.77810000000000001</v>
+        <v>0.76559999999999995</v>
       </c>
       <c r="M18" s="4">
-        <v>0.75419999999999998</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>24</v>
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="N18" s="25">
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.8">
@@ -1536,7 +1492,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>18</v>
@@ -1560,119 +1516,119 @@
         <v>1755</v>
       </c>
       <c r="J19" s="4">
-        <v>0.79200000000000004</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="K19" s="4">
-        <v>0.78580000000000005</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="L19" s="4">
-        <v>0.79200000000000004</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="M19" s="4">
-        <v>0.78480000000000005</v>
+        <v>0.75419999999999998</v>
       </c>
       <c r="N19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="24">
+    </row>
+    <row r="20" spans="1:15" ht="16.8">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1957</v>
+      </c>
+      <c r="E20" s="1">
+        <v>926</v>
+      </c>
+      <c r="F20" s="1">
+        <v>489</v>
+      </c>
+      <c r="G20" s="1">
+        <v>232</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1957</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1755</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="32" customFormat="1" ht="16.8">
-      <c r="A20" s="32" t="s">
+    <row r="21" spans="1:15" s="32" customFormat="1" ht="16.8">
+      <c r="A21" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D21" s="34">
         <v>1712</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E21" s="34">
         <v>810</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F21" s="34">
         <v>734</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G21" s="34">
         <v>348</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H21" s="34">
         <v>1712</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I21" s="34">
         <v>1712</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J21" s="35">
         <v>0.75139999999999996</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K21" s="35">
         <v>0.75609999999999999</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L21" s="35">
         <v>0.75139999999999996</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M21" s="35">
         <v>0.75339999999999996</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N21" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="37"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.8">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1712</v>
-      </c>
-      <c r="E21" s="1">
-        <v>810</v>
-      </c>
-      <c r="F21" s="1">
-        <v>734</v>
-      </c>
-      <c r="G21" s="1">
-        <v>348</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1712</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1712</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.79210000000000003</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.79210000000000003</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="1:15" ht="16.8">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>19</v>
@@ -1695,31 +1651,28 @@
       <c r="I22" s="1">
         <v>1712</v>
       </c>
-      <c r="J22" s="3">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.78190000000000004</v>
+      <c r="J22" s="4">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.77839999999999998</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="24">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="16.8">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>19</v>
@@ -1737,25 +1690,28 @@
         <v>348</v>
       </c>
       <c r="H23" s="1">
-        <v>1702</v>
+        <v>1712</v>
       </c>
       <c r="I23" s="1">
-        <v>1702</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.75049999999999994</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.75490000000000002</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0.75049999999999994</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.75239999999999996</v>
+        <v>1712</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.78190000000000004</v>
       </c>
       <c r="N23" s="25" t="s">
         <v>24</v>
+      </c>
+      <c r="O23" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.8">
@@ -1763,7 +1719,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>19</v>
@@ -1787,19 +1743,19 @@
         <v>1702</v>
       </c>
       <c r="J24" s="4">
-        <v>0.79020000000000001</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="K24" s="4">
-        <v>0.78710000000000002</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="L24" s="4">
-        <v>0.79020000000000001</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="M24" s="4">
-        <v>0.77580000000000005</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.8">
@@ -1807,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -1830,31 +1786,28 @@
       <c r="I25" s="1">
         <v>1702</v>
       </c>
-      <c r="J25" s="3">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0.78890000000000005</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0.78300000000000003</v>
+      <c r="J25" s="4">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.77580000000000005</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="24">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="16.8">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>19</v>
@@ -1872,25 +1825,28 @@
         <v>348</v>
       </c>
       <c r="H26" s="1">
-        <v>1753</v>
+        <v>1702</v>
       </c>
       <c r="I26" s="1">
-        <v>1712</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.75170000000000003</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.74229999999999996</v>
+        <v>1702</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.78300000000000003</v>
       </c>
       <c r="N26" s="25" t="s">
         <v>24</v>
+      </c>
+      <c r="O26" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="16.8">
@@ -1898,7 +1854,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>19</v>
@@ -1922,16 +1878,16 @@
         <v>1712</v>
       </c>
       <c r="J27" s="4">
-        <v>0.78100000000000003</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="K27" s="4">
-        <v>0.78439999999999999</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="L27" s="4">
-        <v>0.78100000000000003</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="M27" s="4">
-        <v>0.75839999999999996</v>
+        <v>0.74229999999999996</v>
       </c>
       <c r="N27" s="25" t="s">
         <v>24</v>
@@ -1942,7 +1898,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>19</v>
@@ -1966,116 +1922,116 @@
         <v>1712</v>
       </c>
       <c r="J28" s="4">
-        <v>0.78559999999999997</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="K28" s="4">
-        <v>0.77880000000000005</v>
+        <v>0.78439999999999999</v>
       </c>
       <c r="L28" s="4">
-        <v>0.78559999999999997</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="M28" s="4">
-        <v>0.7782</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="N28" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="38" customFormat="1" ht="16.8">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:15" ht="16.8">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1712</v>
+      </c>
+      <c r="E29" s="1">
+        <v>810</v>
+      </c>
+      <c r="F29" s="1">
+        <v>734</v>
+      </c>
+      <c r="G29" s="1">
+        <v>348</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1753</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1712</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.78559999999999997</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.7782</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="38" customFormat="1" ht="16.8">
+      <c r="A30" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B30" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D30" s="40">
         <v>1467</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E30" s="40">
         <v>695</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F30" s="40">
         <v>979</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G30" s="40">
         <v>463</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H30" s="40">
         <v>1467</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I30" s="40">
         <v>1467</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J30" s="49">
         <v>0.7399</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K30" s="49">
         <v>0.74519999999999997</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L30" s="49">
         <v>0.7399</v>
       </c>
-      <c r="M29" s="49">
+      <c r="M30" s="49">
         <v>0.74219999999999997</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N30" s="38">
         <v>1</v>
       </c>
-      <c r="O29" s="41"/>
-    </row>
-    <row r="30" spans="1:15" ht="16.8">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1467</v>
-      </c>
-      <c r="E30" s="1">
-        <v>695</v>
-      </c>
-      <c r="F30" s="1">
-        <v>979</v>
-      </c>
-      <c r="G30" s="1">
-        <v>463</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1467</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1467</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0.77390000000000003</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.7671</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.77390000000000003</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0.7591</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="O30" s="41"/>
     </row>
     <row r="31" spans="1:15" ht="16.8">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>20</v>
@@ -2098,31 +2054,28 @@
       <c r="I31" s="1">
         <v>1467</v>
       </c>
-      <c r="J31" s="4">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0.76370000000000005</v>
+      <c r="J31" s="3">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.7671</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.77390000000000003</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0.7591</v>
       </c>
       <c r="N31" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="24">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="16.8">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>20</v>
@@ -2140,25 +2093,28 @@
         <v>463</v>
       </c>
       <c r="H32" s="1">
-        <v>1450</v>
+        <v>1467</v>
       </c>
       <c r="I32" s="1">
-        <v>1450</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0.74350000000000005</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0.73719999999999997</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0.73980000000000001</v>
+        <v>1467</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.76370000000000005</v>
       </c>
       <c r="N32" s="25" t="s">
         <v>24</v>
+      </c>
+      <c r="O32" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="16.8">
@@ -2166,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>20</v>
@@ -2190,19 +2146,19 @@
         <v>1450</v>
       </c>
       <c r="J33" s="3">
-        <v>0.77249999999999996</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="K33" s="3">
-        <v>0.76649999999999996</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="L33" s="3">
-        <v>0.77249999999999996</v>
+        <v>0.73719999999999997</v>
       </c>
       <c r="M33" s="3">
-        <v>0.75580000000000003</v>
+        <v>0.73980000000000001</v>
       </c>
       <c r="N33" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="16.8">
@@ -2210,7 +2166,7 @@
         <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>20</v>
@@ -2233,31 +2189,28 @@
       <c r="I34" s="1">
         <v>1450</v>
       </c>
-      <c r="J34" s="4">
-        <v>0.7732</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.76529999999999998</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.7732</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0.76100000000000001</v>
+      <c r="J34" s="3">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.75580000000000003</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="24">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.8">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>20</v>
@@ -2275,25 +2228,28 @@
         <v>463</v>
       </c>
       <c r="H35" s="1">
-        <v>1497</v>
+        <v>1450</v>
       </c>
       <c r="I35" s="1">
-        <v>1467</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0.7399</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0.72940000000000005</v>
+        <v>1450</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.7732</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.7732</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.76100000000000001</v>
       </c>
       <c r="N35" s="25" t="s">
         <v>24</v>
+      </c>
+      <c r="O35" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.8">
@@ -2301,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>20</v>
@@ -2324,20 +2280,20 @@
       <c r="I36" s="1">
         <v>1467</v>
       </c>
-      <c r="J36" s="4">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0.7621</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0.76980000000000004</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0.75470000000000004</v>
+      <c r="J36" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.7399</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.72940000000000005</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.8">
@@ -2345,7 +2301,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>20</v>
@@ -2369,53 +2325,82 @@
         <v>1467</v>
       </c>
       <c r="J37" s="4">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.7621</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.75470000000000004</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.8">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1467</v>
+      </c>
+      <c r="E38" s="1">
+        <v>695</v>
+      </c>
+      <c r="F38" s="1">
+        <v>979</v>
+      </c>
+      <c r="G38" s="1">
+        <v>463</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1497</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1467</v>
+      </c>
+      <c r="J38" s="4">
         <v>0.7712</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K38" s="4">
         <v>0.76290000000000002</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L38" s="4">
         <v>0.7712</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M38" s="4">
         <v>0.76270000000000004</v>
       </c>
-      <c r="N37" s="25" t="s">
+      <c r="N38" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O38" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="14.4" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-    </row>
-    <row r="39" spans="1:15" ht="16.8">
+    <row r="39" spans="1:15" ht="14.4" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:15" ht="16.8">
       <c r="A40" s="13"/>
@@ -2427,10 +2412,10 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="1:15" ht="16.8">
       <c r="A41" s="13"/>
@@ -2462,35 +2447,35 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="1:15" ht="15.6">
+    <row r="43" spans="1:15" ht="16.8">
       <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:15" ht="16.8">
+      <c r="B43" s="18"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.6">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:15" ht="16.8">
       <c r="A45" s="13"/>
@@ -2539,33 +2524,33 @@
     </row>
     <row r="48" spans="1:15" ht="16.8">
       <c r="A48" s="13"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
     </row>
     <row r="49" spans="1:13" ht="16.8">
       <c r="A49" s="13"/>
       <c r="B49" s="18"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
     </row>
     <row r="50" spans="1:13" ht="16.8">
       <c r="A50" s="13"/>
@@ -2577,10 +2562,10 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" ht="16.8">
       <c r="A51" s="13"/>
@@ -2616,31 +2601,31 @@
       <c r="A53" s="13"/>
       <c r="B53" s="18"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13" ht="16.8">
       <c r="A54" s="13"/>
       <c r="B54" s="18"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
     </row>
     <row r="55" spans="1:13" ht="16.8">
       <c r="A55" s="13"/>
@@ -2652,10 +2637,10 @@
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
     </row>
     <row r="56" spans="1:13" ht="16.8">
       <c r="A56" s="13"/>
@@ -2687,35 +2672,35 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="1:13" ht="14.4" customHeight="1">
+    <row r="58" spans="1:13" ht="16.8">
       <c r="A58" s="13"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-    </row>
-    <row r="59" spans="1:13" ht="16.8">
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="1:13" ht="14.4" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
     </row>
     <row r="60" spans="1:13" ht="16.8">
       <c r="A60" s="13"/>
@@ -2727,10 +2712,10 @@
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="16.8">
       <c r="A61" s="13"/>
@@ -2761,6 +2746,21 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:13" ht="16.8">
+      <c r="A63" s="13"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
